--- a/字段编码/港航房建部.xlsx
+++ b/字段编码/港航房建部.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="219">
   <si>
     <t>字段编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,12 +708,309 @@
   <si>
     <t>XM0043</t>
   </si>
+  <si>
+    <t>工程概况简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大技术难点概述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目施工部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年生产计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在建工程统计表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（设备）数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工班组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余工程量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余主要工程量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键线路工程节点计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位或分项工程名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象进度计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前项目进展情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前项目存在的问题及解决措施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中标资质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>无sheet区分，无特殊编码规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +1062,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -887,13 +1197,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,83 +1257,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,30 +1571,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1297,7 +1606,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1308,1127 +1617,1314 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="18" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="18" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="18" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="18" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="18" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="18" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="18" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="18" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="18" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="18" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="19" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="18" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="20" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="20" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="20" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="20" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="20" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="18" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="20" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="20" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="20" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="20" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="20" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="20" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="20" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="18" t="s">
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="17" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="28"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="17" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="28"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="17" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="28"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="17" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="17" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="28"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="17" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="28"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="17" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="28"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="17" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="28"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="17" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="28"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="17" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="28"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="17" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="28"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="17" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="17" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="17" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="28"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="17" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="28"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="17" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="28"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="17" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="28"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="17" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="28"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="17" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="28"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="17" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="28"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="17" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="17" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="17" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="28"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="17" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="2"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="11"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="11"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="11"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" s="30"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="30"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" s="30"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="30"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F89" s="30"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="30"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="30"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94" s="30"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="30"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="30"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97" s="30"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="30"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F99" s="30"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="30"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="30"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="30"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F105" s="30"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" s="30"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F107" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A73:A107"/>
+    <mergeCell ref="B73:B107"/>
+    <mergeCell ref="C73:C107"/>
+    <mergeCell ref="F73:F107"/>
     <mergeCell ref="F3:F29"/>
     <mergeCell ref="A3:A72"/>
     <mergeCell ref="B3:B72"/>
     <mergeCell ref="C30:C72"/>
     <mergeCell ref="F30:F72"/>
     <mergeCell ref="C3:C29"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
